--- a/com.freecrm/src/test/resources/test_data.xlsx
+++ b/com.freecrm/src/test/resources/test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadou\IdeaProjects\SeleniumBootcamp\com.freecrm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BF3083-264B-4AA0-83A6-C6355010E6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F0DD71-FBF4-4B0F-8D55-6084846B2C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{212D3968-0E05-4AE2-9CEC-76A0DDE657D7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{212D3968-0E05-4AE2-9CEC-76A0DDE657D7}"/>
   </bookViews>
   <sheets>
     <sheet name="doSignIn" sheetId="1" r:id="rId1"/>
+    <sheet name="doAddContact" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>abc2@gmail.com</t>
   </si>
@@ -58,13 +59,189 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>String description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>String streetAddress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>String city</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>String state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>String phoneNumber){</t>
+    </r>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>streetAddress</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state </t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>Auooz</t>
+  </si>
+  <si>
+    <t>ahsan</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>auooz@gmail.com</t>
+  </si>
+  <si>
+    <t>Car company</t>
+  </si>
+  <si>
+    <t>125 D</t>
+  </si>
+  <si>
+    <t>Abdullah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noor </t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>abdullah@gmail.com</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Phialadelphia</t>
+  </si>
+  <si>
+    <t>121 Main ST</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Fo</t>
+  </si>
+  <si>
+    <t>Dalal</t>
+  </si>
+  <si>
+    <t>Sadouni</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>dalal@gmail.com</t>
+  </si>
+  <si>
+    <t>12 Main St</t>
+  </si>
+  <si>
+    <t>New york</t>
+  </si>
+  <si>
+    <t>Ny</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +257,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCC7832"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2B2B2B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,9 +297,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4FF3B5-1BDB-4C2D-9C10-28134F46DDD4}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -472,4 +673,157 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7010E5-8B8E-411C-9FBC-B19075780DD4}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2">
+        <v>2675825487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>2678526598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>2672586598</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{70EF9889-0E79-43F5-BC69-B1BA802476D0}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{87356920-2F90-4B92-AC5A-89E47ED8FFF5}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{A64E1C2E-7DC1-4180-AF45-EE4BCC150F18}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+</worksheet>
 </file>
--- a/com.freecrm/src/test/resources/test_data.xlsx
+++ b/com.freecrm/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadou\IdeaProjects\SeleniumBootcamp\com.freecrm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F0DD71-FBF4-4B0F-8D55-6084846B2C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B4B96-C40B-4E85-9F56-B149859E1EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{212D3968-0E05-4AE2-9CEC-76A0DDE657D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{212D3968-0E05-4AE2-9CEC-76A0DDE657D7}"/>
   </bookViews>
   <sheets>
     <sheet name="doSignIn" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
-  <si>
-    <t>abc2@gmail.com</t>
-  </si>
-  <si>
-    <t>abc3@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>password</t>
   </si>
@@ -50,12 +44,6 @@
   </si>
   <si>
     <t>AydenLiam1213</t>
-  </si>
-  <si>
-    <t>Abc2@</t>
-  </si>
-  <si>
-    <t>Abc3@</t>
   </si>
   <si>
     <t>email</t>
@@ -235,6 +223,12 @@
   </si>
   <si>
     <t>Ny</t>
+  </si>
+  <si>
+    <t>tamazouztsadouni@gmail.com</t>
+  </si>
+  <si>
+    <t>Abc1987@</t>
   </si>
 </sst>
 </file>
@@ -623,7 +617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4FF3B5-1BDB-4C2D-9C10-28134F46DDD4}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -633,43 +629,37 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{68EE3409-6CF2-4135-83CE-A1433FE5B0E7}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{8ADA8A2F-4697-4B97-B8F2-A06EC339B4D5}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{902EB6BD-24EF-48D7-A58A-0C1A558FA5B3}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{7B307EE6-5894-455A-BFB5-C3D4E98FE9DF}"/>
-    <hyperlink ref="B3" r:id="rId5" xr:uid="{0A89571D-E14E-49CB-AE8C-E8D1F6470928}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{0A89571D-E14E-49CB-AE8C-E8D1F6470928}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -679,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7010E5-8B8E-411C-9FBC-B19075780DD4}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -695,57 +685,57 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I2">
         <v>2675825487</v>
@@ -753,28 +743,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>2678526598</v>
@@ -782,28 +772,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
       </c>
       <c r="I4">
         <v>2672586598</v>
@@ -814,7 +804,7 @@
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/com.freecrm/src/test/resources/test_data.xlsx
+++ b/com.freecrm/src/test/resources/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadou\IdeaProjects\SeleniumBootcamp\com.freecrm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B4B96-C40B-4E85-9F56-B149859E1EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F7A96D-793E-49C3-AFA1-6D6EA7815B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{212D3968-0E05-4AE2-9CEC-76A0DDE657D7}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/com.freecrm/src/test/resources/test_data.xlsx
+++ b/com.freecrm/src/test/resources/test_data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadou\IdeaProjects\SeleniumBootcamp\com.freecrm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F7A96D-793E-49C3-AFA1-6D6EA7815B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E8B1A2-7810-4DF6-812B-ACA7A2D086A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{212D3968-0E05-4AE2-9CEC-76A0DDE657D7}"/>
   </bookViews>
   <sheets>
     <sheet name="doSignIn" sheetId="1" r:id="rId1"/>
-    <sheet name="doAddContact" sheetId="2" r:id="rId2"/>
+    <sheet name="dnu" sheetId="2" r:id="rId2"/>
+    <sheet name="doAddContact" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>password</t>
   </si>
@@ -618,7 +619,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,7 +671,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,4 +817,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDA437D-FC17-45FC-9739-D1BE43334241}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>2675825487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>2678526598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>2672586598</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{5BF79E95-9960-41D7-8952-7DF7BBA1AA68}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{C9A2604E-B6F7-401A-8A23-45B825707FE3}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{F9DFEB68-7C26-4814-930C-FA6243691855}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.freecrm/src/test/resources/test_data.xlsx
+++ b/com.freecrm/src/test/resources/test_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadou\IdeaProjects\SeleniumBootcamp\com.freecrm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E8B1A2-7810-4DF6-812B-ACA7A2D086A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D1C080-1BB1-4583-BC80-B87176B6726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{212D3968-0E05-4AE2-9CEC-76A0DDE657D7}"/>
+    <workbookView xWindow="3900" yWindow="696" windowWidth="17280" windowHeight="8880" xr2:uid="{212D3968-0E05-4AE2-9CEC-76A0DDE657D7}"/>
   </bookViews>
   <sheets>
     <sheet name="doSignIn" sheetId="1" r:id="rId1"/>
     <sheet name="dnu" sheetId="2" r:id="rId2"/>
     <sheet name="doAddContact" sheetId="3" r:id="rId3"/>
+    <sheet name="doFilterSearchInContacts" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>password</t>
   </si>
@@ -230,6 +231,9 @@
   </si>
   <si>
     <t>Abc1987@</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -619,7 +623,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,4 +964,39 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B9805A-94BB-4E26-9C64-7436167C01B2}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.freecrm/src/test/resources/test_data.xlsx
+++ b/com.freecrm/src/test/resources/test_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadou\IdeaProjects\SeleniumBootcamp\com.freecrm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D1C080-1BB1-4583-BC80-B87176B6726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2DC8C1-6FD0-4512-84B2-22547DF393DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="696" windowWidth="17280" windowHeight="8880" xr2:uid="{212D3968-0E05-4AE2-9CEC-76A0DDE657D7}"/>
+    <workbookView xWindow="1260" yWindow="984" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{212D3968-0E05-4AE2-9CEC-76A0DDE657D7}"/>
   </bookViews>
   <sheets>
     <sheet name="doSignIn" sheetId="1" r:id="rId1"/>
-    <sheet name="dnu" sheetId="2" r:id="rId2"/>
-    <sheet name="doAddContact" sheetId="3" r:id="rId3"/>
-    <sheet name="doFilterSearchInContacts" sheetId="4" r:id="rId4"/>
+    <sheet name="doAddTasks" sheetId="5" r:id="rId2"/>
+    <sheet name="dnu" sheetId="2" r:id="rId3"/>
+    <sheet name="doAddContact" sheetId="3" r:id="rId4"/>
+    <sheet name="doFilterSearchInContacts" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>password</t>
   </si>
@@ -234,6 +235,18 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Test add task1</t>
+  </si>
+  <si>
+    <t>Test add task2</t>
+  </si>
+  <si>
+    <t>Test add task3</t>
   </si>
 </sst>
 </file>
@@ -622,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4FF3B5-1BDB-4C2D-9C10-28134F46DDD4}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -671,6 +684,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D4F32A-B1AD-4121-9CAE-581F14AC8047}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7010E5-8B8E-411C-9FBC-B19075780DD4}">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -823,7 +874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDA437D-FC17-45FC-9739-D1BE43334241}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -966,7 +1017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B9805A-94BB-4E26-9C64-7436167C01B2}">
   <dimension ref="A1:A4"/>
   <sheetViews>

--- a/com.freecrm/src/test/resources/test_data.xlsx
+++ b/com.freecrm/src/test/resources/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadou\IdeaProjects\SeleniumBootcamp\com.freecrm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2DC8C1-6FD0-4512-84B2-22547DF393DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8BED91-8544-444C-8EE6-A3B44EB2BF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="984" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{212D3968-0E05-4AE2-9CEC-76A0DDE657D7}"/>
   </bookViews>
@@ -688,12 +688,13 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">

--- a/com.freecrm/src/test/resources/test_data.xlsx
+++ b/com.freecrm/src/test/resources/test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadou\IdeaProjects\SeleniumBootcamp\com.freecrm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8BED91-8544-444C-8EE6-A3B44EB2BF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7F3F16-B189-4654-9B01-0C847BB1EDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="984" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{212D3968-0E05-4AE2-9CEC-76A0DDE657D7}"/>
+    <workbookView xWindow="1608" yWindow="1332" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="4" xr2:uid="{212D3968-0E05-4AE2-9CEC-76A0DDE657D7}"/>
   </bookViews>
   <sheets>
     <sheet name="doSignIn" sheetId="1" r:id="rId1"/>
@@ -687,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D4F32A-B1AD-4121-9CAE-581F14AC8047}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1022,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B9805A-94BB-4E26-9C64-7436167C01B2}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
